--- a/data/trans_orig/P56$amigo-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P56$amigo-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>3076</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1005</v>
+        <v>992</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8098</v>
+        <v>7131</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.06969019988693886</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02277562090992343</v>
+        <v>0.02247841364782421</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1834714768361719</v>
+        <v>0.16157520438092</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5119</v>
+        <v>5615</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01338465160890713</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06137020578891191</v>
+        <v>0.0673197096549933</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -786,19 +786,19 @@
         <v>4192</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1123</v>
+        <v>1034</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>10043</v>
+        <v>9546</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03286753430140668</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008805321365574178</v>
+        <v>0.008110147882393661</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07873928577902828</v>
+        <v>0.07484349860665258</v>
       </c>
     </row>
     <row r="5">
@@ -828,19 +828,19 @@
         <v>6524</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>2298</v>
+        <v>2083</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>12309</v>
+        <v>12155</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07820890085999184</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.0275522033422596</v>
+        <v>0.02496585264225413</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1475677757157211</v>
+        <v>0.1457137862353772</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>6</v>
@@ -849,19 +849,19 @@
         <v>6524</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>3055</v>
+        <v>2353</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>13238</v>
+        <v>13001</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.05114700576147539</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.02395491864391543</v>
+        <v>0.01844415710769752</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1037826175514359</v>
+        <v>0.1019301442753243</v>
       </c>
     </row>
     <row r="6">
@@ -925,19 +925,19 @@
         <v>8177</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>4511</v>
+        <v>4139</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13686</v>
+        <v>13680</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1852653810007505</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1022022155756628</v>
+        <v>0.09377659953608972</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3100867118862421</v>
+        <v>0.3099673125639773</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -946,19 +946,19 @@
         <v>15890</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8958</v>
+        <v>9510</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>23697</v>
+        <v>25052</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1904916700852288</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1073848243357713</v>
+        <v>0.1140024900938452</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2840836548389759</v>
+        <v>0.3003276009978685</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>23</v>
@@ -967,19 +967,19 @@
         <v>24067</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16409</v>
+        <v>16045</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33640</v>
+        <v>34420</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1886832661132581</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1286440022554501</v>
+        <v>0.125796061350451</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2637379322143205</v>
+        <v>0.2698526377047085</v>
       </c>
     </row>
     <row r="8">
@@ -996,19 +996,19 @@
         <v>9341</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4756</v>
+        <v>4824</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>14923</v>
+        <v>15270</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2116428277149957</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1077665992882874</v>
+        <v>0.1093018515154962</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3381207237950154</v>
+        <v>0.3459786247253956</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>32</v>
@@ -1017,19 +1017,19 @@
         <v>36131</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>26660</v>
+        <v>26687</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45391</v>
+        <v>44490</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.433142786553506</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3196116193747374</v>
+        <v>0.3199338625564413</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5441625301838547</v>
+        <v>0.5333582369120523</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -1038,19 +1038,19 @@
         <v>45472</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>35143</v>
+        <v>35232</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>58158</v>
+        <v>57687</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3564992257247431</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2755190332410298</v>
+        <v>0.276221884740371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4559612155367074</v>
+        <v>0.4522634536019612</v>
       </c>
     </row>
     <row r="9">
@@ -1067,19 +1067,19 @@
         <v>2550</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>759</v>
+        <v>766</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7371</v>
+        <v>7414</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.05778271854356235</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01720515238010509</v>
+        <v>0.01735151426375809</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1669999740728844</v>
+        <v>0.1679840926107003</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>8</v>
@@ -1088,19 +1088,19 @@
         <v>8702</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>4327</v>
+        <v>4065</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>16891</v>
+        <v>16045</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1043189558540747</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.0518768020299434</v>
+        <v>0.04872769939380108</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.202499272854999</v>
+        <v>0.1923466596391144</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>11</v>
@@ -1109,19 +1109,19 @@
         <v>11252</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>5976</v>
+        <v>5914</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19123</v>
+        <v>19373</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.08821645654096921</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.04685262504903007</v>
+        <v>0.0463648793845687</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.149924931222757</v>
+        <v>0.151881179496491</v>
       </c>
     </row>
     <row r="10">
@@ -1185,19 +1185,19 @@
         <v>18565</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>12849</v>
+        <v>12517</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>25036</v>
+        <v>25201</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.420639579657237</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.291125702168118</v>
+        <v>0.2836061340081885</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5672568758837373</v>
+        <v>0.5709901112172928</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -1206,19 +1206,19 @@
         <v>8566</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4090</v>
+        <v>4260</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>15868</v>
+        <v>15065</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1026907280575805</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.04903624209146568</v>
+        <v>0.05107377291568018</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1902344318247347</v>
+        <v>0.1805980369922149</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -1227,19 +1227,19 @@
         <v>27131</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>18690</v>
+        <v>18511</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36894</v>
+        <v>37805</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2127075979287853</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1465261038816477</v>
+        <v>0.1451233978530622</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2892504416621777</v>
+        <v>0.2963929892464286</v>
       </c>
     </row>
     <row r="12">
@@ -1256,19 +1256,19 @@
         <v>3461</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>925</v>
+        <v>878</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8144</v>
+        <v>8443</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.07841882182636201</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.02096020583525818</v>
+        <v>0.01990072474206316</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1845232958281026</v>
+        <v>0.1912951347412004</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>8</v>
@@ -1277,19 +1277,19 @@
         <v>8477</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>4194</v>
+        <v>4135</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>15659</v>
+        <v>16210</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1016226695455214</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.05027761401141433</v>
+        <v>0.04956642514838867</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1877244272191814</v>
+        <v>0.1943325657458019</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>12</v>
@@ -1298,19 +1298,19 @@
         <v>11938</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>6363</v>
+        <v>6047</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>20047</v>
+        <v>19801</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.09359365896037117</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.0498822936391258</v>
+        <v>0.04740517487589407</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1571704111557186</v>
+        <v>0.1552361452728668</v>
       </c>
     </row>
     <row r="13">
@@ -1522,7 +1522,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3352</v>
+        <v>4146</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4075418128695566</v>
@@ -1531,7 +1531,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8084031801866747</v>
+        <v>1</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1</v>
@@ -1543,7 +1543,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4549</v>
+        <v>4484</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1649486019749819</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6720861386828887</v>
+        <v>0.6623659965933294</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>3</v>
@@ -1561,19 +1561,19 @@
         <v>2806</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6685</v>
+        <v>6311</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2570941250032945</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07160440767337151</v>
+        <v>0.07178827775704368</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.612534426255357</v>
+        <v>0.5782310836353264</v>
       </c>
     </row>
     <row r="18">
@@ -1606,7 +1606,7 @@
         <v>0</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>5618</v>
+        <v>5415</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3335312565403433</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.8299371762503815</v>
+        <v>0.8000114715550848</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>2</v>
@@ -1627,7 +1627,7 @@
         <v>0</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>5985</v>
+        <v>5575</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2068442319246534</v>
@@ -1636,7 +1636,7 @@
         <v>0</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5483629060491674</v>
+        <v>0.51080007282796</v>
       </c>
     </row>
     <row r="19">
@@ -1656,7 +1656,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>3318</v>
+        <v>3268</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1974860623768145</v>
@@ -1665,7 +1665,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.8002235521631758</v>
+        <v>0.7881948032799454</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1</v>
@@ -1677,7 +1677,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4790</v>
+        <v>4920</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1950138068028678</v>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.7075641527179353</v>
+        <v>0.7267893008096574</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>6296</v>
+        <v>6363</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1959528573314499</v>
@@ -1707,7 +1707,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.5768877442428441</v>
+        <v>0.5829960983316081</v>
       </c>
     </row>
     <row r="20">
@@ -1795,7 +1795,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>4057</v>
+        <v>4053</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1350037777879773</v>
@@ -1804,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5993152906817273</v>
+        <v>0.5987067254785322</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>3</v>
@@ -1816,16 +1816,16 @@
         <v>733</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>5691</v>
+        <v>5790</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2337489949917929</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.06717807691547012</v>
+        <v>0.06715565468044925</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5214838285139924</v>
+        <v>0.5305512084466243</v>
       </c>
     </row>
     <row r="22">
@@ -1858,7 +1858,7 @@
         <v>0</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>4557</v>
+        <v>4710</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1715025568938296</v>
@@ -1867,7 +1867,7 @@
         <v>0</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6732778822923626</v>
+        <v>0.6957771242737937</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1</v>
@@ -1879,7 +1879,7 @@
         <v>0</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>4775</v>
+        <v>4689</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1063597907488093</v>
@@ -1888,7 +1888,7 @@
         <v>0</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4375105807467838</v>
+        <v>0.4296663134726881</v>
       </c>
     </row>
     <row r="23">
@@ -2438,19 +2438,19 @@
         <v>3076</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>997</v>
+        <v>1012</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>7219</v>
+        <v>7720</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.06370620898941061</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02065455728898553</v>
+        <v>0.0209528268313097</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1495174870297562</v>
+        <v>0.1598869764874277</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>2</v>
@@ -2462,7 +2462,7 @@
         <v>0</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>6366</v>
+        <v>6763</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02183302243278206</v>
@@ -2471,7 +2471,7 @@
         <v>0</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0680564885488408</v>
+        <v>0.07230169404172258</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -2480,19 +2480,19 @@
         <v>5118</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1998</v>
+        <v>1937</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>10914</v>
+        <v>11320</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03608766255416745</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01408907081817239</v>
+        <v>0.01365715648792474</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.07695723568330048</v>
+        <v>0.07981962354644098</v>
       </c>
     </row>
     <row r="35">
@@ -2522,19 +2522,19 @@
         <v>6524</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>2224</v>
+        <v>2251</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>12929</v>
+        <v>12977</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06974027922574513</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02377897523180993</v>
+        <v>0.02405920170849666</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1382159702541773</v>
+        <v>0.13872497416496</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>6</v>
@@ -2543,19 +2543,19 @@
         <v>6524</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>2342</v>
+        <v>2297</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>12802</v>
+        <v>13806</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.0459990103117232</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.01651238785232563</v>
+        <v>0.016195650834365</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.09026577121047114</v>
+        <v>0.0973460976097769</v>
       </c>
     </row>
     <row r="36">
@@ -2619,19 +2619,19 @@
         <v>9866</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>5349</v>
+        <v>5663</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>15760</v>
+        <v>16148</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2043512804126602</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1107962855167894</v>
+        <v>0.1172967034000163</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3264269189583214</v>
+        <v>0.3344528014569528</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>15</v>
@@ -2640,19 +2640,19 @@
         <v>17006</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>10321</v>
+        <v>9655</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>25693</v>
+        <v>25607</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.181800171669979</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1103325188058472</v>
+        <v>0.1032092125007251</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2746645784691273</v>
+        <v>0.2737409364154137</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>26</v>
@@ -2661,19 +2661,19 @@
         <v>26873</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>19017</v>
+        <v>18120</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>37918</v>
+        <v>37429</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.1894771116380039</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1340903685962622</v>
+        <v>0.1277663974719012</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2673578747492812</v>
+        <v>0.2639120786424853</v>
       </c>
     </row>
     <row r="38">
@@ -2690,19 +2690,19 @@
         <v>9341</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>4753</v>
+        <v>4577</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>14949</v>
+        <v>15035</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.193469989114614</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09844676631778938</v>
+        <v>0.09480373329484705</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3096148076528548</v>
+        <v>0.3114035883141558</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>34</v>
@@ -2711,19 +2711,19 @@
         <v>38389</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>27683</v>
+        <v>28318</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>48327</v>
+        <v>48416</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4103748093278971</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2959315173124372</v>
+        <v>0.3027237021004471</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.5166193847950123</v>
+        <v>0.5175656552115371</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>44</v>
@@ -2732,19 +2732,19 @@
         <v>47729</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>36226</v>
+        <v>37203</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>59297</v>
+        <v>58298</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3365351900633657</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2554268571411798</v>
+        <v>0.2623134259988304</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.4180973500479824</v>
+        <v>0.4110581089986466</v>
       </c>
     </row>
     <row r="39">
@@ -2761,19 +2761,19 @@
         <v>3369</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>843</v>
+        <v>930</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>8657</v>
+        <v>7811</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.06977843012436839</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01747024838080122</v>
+        <v>0.01927245778077691</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1793055262008519</v>
+        <v>0.1617828534395197</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>9</v>
@@ -2782,19 +2782,19 @@
         <v>10022</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>5399</v>
+        <v>4581</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>17090</v>
+        <v>17262</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1071338722382753</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.05771207367531488</v>
+        <v>0.04897637917218103</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1826923815260866</v>
+        <v>0.1845307411802675</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>13</v>
@@ -2803,19 +2803,19 @@
         <v>13391</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>7530</v>
+        <v>7687</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>21376</v>
+        <v>21536</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.09441718101658243</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.0530951419818662</v>
+        <v>0.05420324375356561</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.1507209027659802</v>
+        <v>0.1518472698523911</v>
       </c>
     </row>
     <row r="40">
@@ -2879,19 +2879,19 @@
         <v>20202</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>14454</v>
+        <v>13462</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>27104</v>
+        <v>26214</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4184356282156413</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2993640252621798</v>
+        <v>0.2788363498317974</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5613747212923984</v>
+        <v>0.5429366021406882</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>11</v>
@@ -2900,19 +2900,19 @@
         <v>10754</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5744</v>
+        <v>5841</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>18515</v>
+        <v>19438</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1149566732011205</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.06140735859065852</v>
+        <v>0.06244028264201194</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1979217269388628</v>
+        <v>0.2077958873347163</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>33</v>
@@ -2921,19 +2921,19 @@
         <v>30956</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>22257</v>
+        <v>22875</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>40800</v>
+        <v>42002</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2182682108194892</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1569314979607832</v>
+        <v>0.1612868423354065</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.287676493771675</v>
+        <v>0.2961525912775483</v>
       </c>
     </row>
     <row r="42">
@@ -2950,19 +2950,19 @@
         <v>3461</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>878</v>
+        <v>887</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>7605</v>
+        <v>7995</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.07168534256005003</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.018181376761014</v>
+        <v>0.01837348025444355</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1575053765667068</v>
+        <v>0.1655899125735037</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>10</v>
@@ -2971,19 +2971,19 @@
         <v>10799</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>5555</v>
+        <v>5244</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>18851</v>
+        <v>19030</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1154378850327528</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.05938493835998161</v>
+        <v>0.0560636822959904</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2015131229078345</v>
+        <v>0.2034329393930317</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>14</v>
@@ -2992,19 +2992,19 @@
         <v>14260</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>8609</v>
+        <v>7866</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>22645</v>
+        <v>23003</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1005434669425375</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.06070432082553867</v>
+        <v>0.05546334485986106</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.1596703249052437</v>
+        <v>0.1621921427739912</v>
       </c>
     </row>
     <row r="43">
@@ -3324,19 +3324,19 @@
         <v>5435</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2184</v>
+        <v>2057</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13067</v>
+        <v>11098</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02922972469766433</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01174715791584956</v>
+        <v>0.01106288424249084</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.07027253470610338</v>
+        <v>0.05968392224870348</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -3345,19 +3345,19 @@
         <v>5435</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>2064</v>
+        <v>2135</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11873</v>
+        <v>11992</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02136978510546105</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.008116162288573011</v>
+        <v>0.008395806647051524</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04668174637884771</v>
+        <v>0.04714954992020957</v>
       </c>
     </row>
     <row r="5">
@@ -3374,19 +3374,19 @@
         <v>8815</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4367</v>
+        <v>4259</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>15731</v>
+        <v>15096</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1288836284608011</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.06385733104174422</v>
+        <v>0.06227567206553337</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2300027903846949</v>
+        <v>0.2207233734236498</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>38</v>
@@ -3395,19 +3395,19 @@
         <v>40846</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>30489</v>
+        <v>30344</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>53106</v>
+        <v>53750</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2196632542239963</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1639659803275858</v>
+        <v>0.1631858036548</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2855925870161763</v>
+        <v>0.2890569211247488</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>46</v>
@@ -3416,19 +3416,19 @@
         <v>49661</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>37529</v>
+        <v>38236</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>62558</v>
+        <v>64798</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1952524059494469</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1475543151322623</v>
+        <v>0.1503332570841989</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2459594041142446</v>
+        <v>0.2547673206123098</v>
       </c>
     </row>
     <row r="6">
@@ -3492,19 +3492,19 @@
         <v>17313</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>10685</v>
+        <v>10818</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>25400</v>
+        <v>26440</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2531385434473162</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1562293440469002</v>
+        <v>0.1581766774394177</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3713873971272818</v>
+        <v>0.3865859919084009</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>51</v>
@@ -3513,19 +3513,19 @@
         <v>54761</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>44258</v>
+        <v>42686</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>68038</v>
+        <v>67598</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2944931788795802</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2380113486549763</v>
+        <v>0.2295581974262407</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3658935287049295</v>
+        <v>0.3635319830057536</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>67</v>
@@ -3534,19 +3534,19 @@
         <v>72074</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>58053</v>
+        <v>58302</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88314</v>
+        <v>86829</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2833728231554923</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2282490759671476</v>
+        <v>0.2292263460348413</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3472241912197349</v>
+        <v>0.3413876577329641</v>
       </c>
     </row>
     <row r="8">
@@ -3563,19 +3563,19 @@
         <v>12857</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6446</v>
+        <v>6813</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22483</v>
+        <v>21820</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1879840462463389</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.09424964031150203</v>
+        <v>0.0996193531866606</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3287255162295751</v>
+        <v>0.3190383306006248</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>47</v>
@@ -3584,19 +3584,19 @@
         <v>52009</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>39557</v>
+        <v>39571</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>65497</v>
+        <v>64661</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2796957008256574</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2127296068228881</v>
+        <v>0.2128031110804523</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3522286139282228</v>
+        <v>0.3477361511465187</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>57</v>
@@ -3605,19 +3605,19 @@
         <v>64866</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>52185</v>
+        <v>52400</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>81261</v>
+        <v>81356</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2550342278781528</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2051760357570261</v>
+        <v>0.2060205821238039</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3194954610695868</v>
+        <v>0.3198678262271837</v>
       </c>
     </row>
     <row r="9">
@@ -3637,7 +3637,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7701</v>
+        <v>6431</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03005674568148076</v>
@@ -3646,7 +3646,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1126019065787965</v>
+        <v>0.09402434567108918</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>13</v>
@@ -3655,19 +3655,19 @@
         <v>13452</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>7609</v>
+        <v>7357</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>20965</v>
+        <v>22878</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.07234219297349273</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.04092200745303765</v>
+        <v>0.039565109230245</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1127440812421355</v>
+        <v>0.1230353143712681</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>15</v>
@@ -3676,19 +3676,19 @@
         <v>15508</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>8313</v>
+        <v>9241</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>24422</v>
+        <v>24110</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.06097153981879273</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.03268362101894781</v>
+        <v>0.03633320448231428</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.09602047489625946</v>
+        <v>0.09479385695288634</v>
       </c>
     </row>
     <row r="10">
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5276</v>
+        <v>5232</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01458809477501237</v>
@@ -3717,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07714947146930971</v>
+        <v>0.07649344185948118</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8397</v>
+        <v>7761</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01215325201089505</v>
@@ -3738,7 +3738,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04515678532856292</v>
+        <v>0.04173549908879187</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -3747,19 +3747,19 @@
         <v>3258</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>985</v>
+        <v>999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>8774</v>
+        <v>8720</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01280798677971087</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.003872468199057945</v>
+        <v>0.003928683398456964</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.03449737554822625</v>
+        <v>0.03428315872479921</v>
       </c>
     </row>
     <row r="11">
@@ -3776,19 +3776,19 @@
         <v>27620</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>18728</v>
+        <v>18887</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>36947</v>
+        <v>37098</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.4038432965035326</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2738265368144162</v>
+        <v>0.2761577741367461</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5402096450100972</v>
+        <v>0.542429485217841</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>25</v>
@@ -3797,19 +3797,19 @@
         <v>27597</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>18580</v>
+        <v>18551</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>38270</v>
+        <v>39340</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1484111757983435</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.09991898710759652</v>
+        <v>0.09976382469804679</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2058114347034219</v>
+        <v>0.2115615493311685</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>47</v>
@@ -3818,19 +3818,19 @@
         <v>55217</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>41019</v>
+        <v>41297</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>69928</v>
+        <v>71774</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2170974552422135</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1612746201539792</v>
+        <v>0.1623699179083947</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2749358379682991</v>
+        <v>0.2821962074736989</v>
       </c>
     </row>
     <row r="12">
@@ -3847,19 +3847,19 @@
         <v>6444</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2251</v>
+        <v>3043</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>13519</v>
+        <v>12852</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.0942140275274074</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.03291291564575306</v>
+        <v>0.04449114405007208</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1976661370282577</v>
+        <v>0.1879159799434048</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>20</v>
@@ -3868,19 +3868,19 @@
         <v>23403</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>14940</v>
+        <v>15047</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>34413</v>
+        <v>34160</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1258583116617552</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08034341767195143</v>
+        <v>0.0809210654004282</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.1850666360773962</v>
+        <v>0.1837063726049853</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>26</v>
@@ -3889,19 +3889,19 @@
         <v>29847</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>19489</v>
+        <v>20535</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>41277</v>
+        <v>42903</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1173490915337133</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.07662641523364505</v>
+        <v>0.08073901561717366</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1622881219016007</v>
+        <v>0.1686836461424145</v>
       </c>
     </row>
     <row r="13">
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>5051</v>
+        <v>5087</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2182318659301745</v>
@@ -4122,7 +4122,7 @@
         <v>0</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5534333996376186</v>
+        <v>0.5574586741454561</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3</v>
@@ -4131,19 +4131,19 @@
         <v>3119</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>7353</v>
+        <v>6425</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2651869902726555</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0800065042541927</v>
+        <v>0.08028737673488059</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6251327688150541</v>
+        <v>0.5461641172084456</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>5</v>
@@ -4155,16 +4155,16 @@
         <v>2013</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>10243</v>
+        <v>10146</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2446728255337495</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09638849173200584</v>
+        <v>0.09637026688682146</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4903732395315485</v>
+        <v>0.4857068090663145</v>
       </c>
     </row>
     <row r="18">
@@ -4181,19 +4181,19 @@
         <v>3108</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>1007</v>
+        <v>990</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>6205</v>
+        <v>6210</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3405876476834075</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1103902722961965</v>
+        <v>0.1084382930537488</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6799396164024881</v>
+        <v>0.6805183857925372</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>4</v>
@@ -4202,19 +4202,19 @@
         <v>4589</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>1136</v>
+        <v>1155</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>8105</v>
+        <v>8749</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3901524248461062</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09656728656682331</v>
+        <v>0.09820907830158786</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6890203684785758</v>
+        <v>0.7437743387232477</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -4223,19 +4223,19 @@
         <v>7698</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>3396</v>
+        <v>3482</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>12115</v>
+        <v>12897</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3684981321953918</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1625711857143011</v>
+        <v>0.1666702054876416</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5799803205774574</v>
+        <v>0.6174172822606148</v>
       </c>
     </row>
     <row r="19">
@@ -4346,19 +4346,19 @@
         <v>6018</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>2921</v>
+        <v>2916</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>8119</v>
+        <v>8136</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.6594123523165925</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3200603835975119</v>
+        <v>0.3194816142074628</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8896097277038035</v>
+        <v>0.8915617069462513</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1</v>
@@ -4370,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>3962</v>
+        <v>4065</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.08035317577910618</v>
@@ -4379,7 +4379,7 @@
         <v>0</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3368479982139148</v>
+        <v>0.3455837674417261</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>7</v>
@@ -4388,19 +4388,19 @@
         <v>6963</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2991</v>
+        <v>2940</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>11441</v>
+        <v>12166</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3333376052190732</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1431851042269719</v>
+        <v>0.1407479440139199</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5477056995382662</v>
+        <v>0.5823884231771068</v>
       </c>
     </row>
     <row r="22">
@@ -4430,19 +4430,19 @@
         <v>3109</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>968</v>
+        <v>988</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6822</v>
+        <v>7389</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.264307409102132</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0823336077044389</v>
+        <v>0.08400349087673403</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5799816551626378</v>
+        <v>0.6281557760404601</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3</v>
@@ -4451,19 +4451,19 @@
         <v>3109</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>955</v>
+        <v>966</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>7451</v>
+        <v>7397</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1488344802586839</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.04569651208552464</v>
+        <v>0.04625270766112025</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3566888709039452</v>
+        <v>0.3541238779981801</v>
       </c>
     </row>
     <row r="23">
@@ -4772,7 +4772,7 @@
         <v>0</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>4331</v>
+        <v>4289</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.1946160189789582</v>
@@ -4781,7 +4781,7 @@
         <v>0</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.8007509929891369</v>
+        <v>0.7929331904221952</v>
       </c>
     </row>
     <row r="29">
@@ -4908,7 +4908,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4423</v>
+        <v>3397</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.2627723250498188</v>
@@ -4917,7 +4917,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>1</v>
+        <v>0.7681181017957516</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>1</v>
@@ -4929,7 +4929,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>4383</v>
+        <v>4419</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.214891126668125</v>
@@ -4938,7 +4938,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8102827057374512</v>
+        <v>0.81700361930893</v>
       </c>
     </row>
     <row r="32">
@@ -4989,7 +4989,7 @@
         <v>3194</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>974</v>
+        <v>965</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>5409</v>
@@ -4998,7 +4998,7 @@
         <v>0.5904928543529168</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1801412518475428</v>
+        <v>0.178379491403274</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -5082,19 +5082,19 @@
         <v>5435</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>2061</v>
+        <v>2093</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>11907</v>
+        <v>11754</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.02688916531089612</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.01019397658727916</v>
+        <v>0.01035212031839463</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05890600552436231</v>
+        <v>0.05815091614300015</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>5</v>
@@ -5103,19 +5103,19 @@
         <v>5435</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>2113</v>
+        <v>1185</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>12967</v>
+        <v>11914</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01936732289251514</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.007528146255864529</v>
+        <v>0.004223538075074725</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.04620615817249409</v>
+        <v>0.04245227311249501</v>
       </c>
     </row>
     <row r="35">
@@ -5132,19 +5132,19 @@
         <v>8815</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4433</v>
+        <v>3809</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>16717</v>
+        <v>15906</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1122831961153217</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.05646774935398383</v>
+        <v>0.04852351173616781</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2129467556805692</v>
+        <v>0.2026088659511811</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>38</v>
@@ -5153,19 +5153,19 @@
         <v>40846</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>30028</v>
+        <v>30536</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>52534</v>
+        <v>53720</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.2020738004429585</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1485527722263306</v>
+        <v>0.1510651151406872</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2598944785724313</v>
+        <v>0.2657617551527234</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>46</v>
@@ -5174,19 +5174,19 @@
         <v>49661</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>38453</v>
+        <v>38200</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>64539</v>
+        <v>62900</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1769562198637653</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.1370180394612473</v>
+        <v>0.136118684475919</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2299708929190355</v>
+        <v>0.2241322546331199</v>
       </c>
     </row>
     <row r="36">
@@ -5250,19 +5250,19 @@
         <v>20290</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>12117</v>
+        <v>13724</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>28998</v>
+        <v>29980</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2584571864598823</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1543425693935445</v>
+        <v>0.1748232253608195</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3693727612120711</v>
+        <v>0.3818927642927004</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -5271,19 +5271,19 @@
         <v>58933</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>46231</v>
+        <v>45949</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>72601</v>
+        <v>71941</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2915511178993296</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.2287136307998524</v>
+        <v>0.227320091503448</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3591696814682204</v>
+        <v>0.3559076335231551</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>74</v>
@@ -5292,19 +5292,19 @@
         <v>79223</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>64479</v>
+        <v>65267</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>94830</v>
+        <v>95582</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.2822935848218207</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2297552719124358</v>
+        <v>0.2325638258944183</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3379079807027595</v>
+        <v>0.3405858354585333</v>
       </c>
     </row>
     <row r="38">
@@ -5321,19 +5321,19 @@
         <v>15965</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>8981</v>
+        <v>8549</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>25548</v>
+        <v>24337</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2033637550997546</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1144051153333286</v>
+        <v>0.1089016391389287</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.325434690684985</v>
+        <v>0.3100021492943594</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>52</v>
@@ -5342,19 +5342,19 @@
         <v>57651</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>45334</v>
+        <v>45243</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>71004</v>
+        <v>71317</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2852104875196841</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2242774564269978</v>
+        <v>0.2238274581107862</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3512690718670951</v>
+        <v>0.3528179892370349</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>65</v>
@@ -5363,19 +5363,19 @@
         <v>73616</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>58937</v>
+        <v>58838</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>90130</v>
+        <v>90932</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2623150864685912</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2100098882569772</v>
+        <v>0.209657646738797</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3211570124676746</v>
+        <v>0.3240177535742028</v>
       </c>
     </row>
     <row r="39">
@@ -5395,7 +5395,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>7413</v>
+        <v>6366</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02618538529871148</v>
@@ -5404,7 +5404,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.09442908142068017</v>
+        <v>0.08109616207529433</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>13</v>
@@ -5413,19 +5413,19 @@
         <v>13452</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>7696</v>
+        <v>7158</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>22236</v>
+        <v>21476</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.06654941864616437</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03807259682879708</v>
+        <v>0.03541289458553529</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.1100038801542099</v>
+        <v>0.1062463142480602</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>15</v>
@@ -5434,19 +5434,19 @@
         <v>15508</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>8600</v>
+        <v>9259</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>24781</v>
+        <v>24530</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.05525818313552601</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03064324794999224</v>
+        <v>0.03299152785732563</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.08830155539818899</v>
+        <v>0.08740712248106472</v>
       </c>
     </row>
     <row r="40">
@@ -5466,7 +5466,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6147</v>
+        <v>4452</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01270912315344844</v>
@@ -5475,7 +5475,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07829669933265754</v>
+        <v>0.05671399783699669</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -5487,7 +5487,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6852</v>
+        <v>8318</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01118008485423917</v>
@@ -5496,7 +5496,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.03389963174259714</v>
+        <v>0.0411516369540976</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>3</v>
@@ -5505,19 +5505,19 @@
         <v>3258</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>990</v>
+        <v>997</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>8609</v>
+        <v>9248</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01160781048295777</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.003528454152382815</v>
+        <v>0.003553506512548525</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.03067555612039908</v>
+        <v>0.03295468275495063</v>
       </c>
     </row>
     <row r="41">
@@ -5534,19 +5534,19 @@
         <v>33638</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>24573</v>
+        <v>23900</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>43297</v>
+        <v>43723</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4284824579228118</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3130141429743875</v>
+        <v>0.3044409036687398</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5515191487009463</v>
+        <v>0.5569506016942597</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>27</v>
@@ -5555,19 +5555,19 @@
         <v>29704</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>20460</v>
+        <v>21471</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>40476</v>
+        <v>42143</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1469533308230889</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1012211393364896</v>
+        <v>0.1062209155075766</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2002445809006964</v>
+        <v>0.2084872643702854</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>55</v>
@@ -5576,19 +5576,19 @@
         <v>63342</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>49243</v>
+        <v>49615</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>79690</v>
+        <v>80663</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2257068996209406</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1754650461036462</v>
+        <v>0.1767931335895175</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2839564344408879</v>
+        <v>0.2874254777579421</v>
       </c>
     </row>
     <row r="42">
@@ -5605,19 +5605,19 @@
         <v>7429</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>3189</v>
+        <v>3182</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>14067</v>
+        <v>14551</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.09463356711509734</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.04062427276805123</v>
+        <v>0.04053167540858277</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.1791820635544638</v>
+        <v>0.1853536905330833</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>25</v>
@@ -5626,19 +5626,19 @@
         <v>28721</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>19550</v>
+        <v>19266</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>40468</v>
+        <v>40544</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1420857733211852</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.09671793101014793</v>
+        <v>0.09531104110719364</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2002032986703373</v>
+        <v>0.2005767115105304</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>32</v>
@@ -5647,19 +5647,19 @@
         <v>36150</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>25724</v>
+        <v>25981</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>48433</v>
+        <v>50572</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.128811727311952</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.09166106611170773</v>
+        <v>0.09257655273484776</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.172579034268937</v>
+        <v>0.1802019829018275</v>
       </c>
     </row>
     <row r="43">
@@ -5979,19 +5979,19 @@
         <v>3383</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>981</v>
+        <v>972</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8820</v>
+        <v>8334</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.0237045848935195</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.006870436355761409</v>
+        <v>0.006807213548929137</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06179625290750108</v>
+        <v>0.05838634309413421</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>3</v>
@@ -6000,19 +6000,19 @@
         <v>3383</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>970</v>
+        <v>941</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>9541</v>
+        <v>8879</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0169661539894796</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004862724117460489</v>
+        <v>0.004719635941240093</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.04784126073232209</v>
+        <v>0.04452488650483872</v>
       </c>
     </row>
     <row r="5">
@@ -6029,19 +6029,19 @@
         <v>4216</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1606</v>
+        <v>1636</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>9065</v>
+        <v>9515</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.07437074058676543</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.02833765467731377</v>
+        <v>0.02886712704153532</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1599007998308202</v>
+        <v>0.1678378038607148</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -6050,19 +6050,19 @@
         <v>10432</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>5000</v>
+        <v>4841</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>19451</v>
+        <v>20064</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.07308935088340819</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.03503120399508861</v>
+        <v>0.03391767193735968</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.136277479003198</v>
+        <v>0.1405718666021239</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -6071,19 +6071,19 @@
         <v>14648</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>8817</v>
+        <v>7643</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>24239</v>
+        <v>22826</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.07345360767237991</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.04421456848606499</v>
+        <v>0.03832540048361509</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1215474996314755</v>
+        <v>0.1144619034157353</v>
       </c>
     </row>
     <row r="6">
@@ -6103,7 +6103,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3929</v>
+        <v>3728</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.0129819664795274</v>
@@ -6112,7 +6112,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06930380149817465</v>
+        <v>0.0657684683009383</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>0</v>
@@ -6137,7 +6137,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3747</v>
+        <v>3345</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.00369034448457154</v>
@@ -6146,7 +6146,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01878951746006542</v>
+        <v>0.01677113971817735</v>
       </c>
     </row>
     <row r="7">
@@ -6163,19 +6163,19 @@
         <v>12314</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>7005</v>
+        <v>7660</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>18828</v>
+        <v>19687</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2172268959943812</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1235703600523431</v>
+        <v>0.1351283019185449</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3321318451504034</v>
+        <v>0.3472871019054549</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>33</v>
@@ -6184,19 +6184,19 @@
         <v>42334</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>29733</v>
+        <v>30978</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>53903</v>
+        <v>54882</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.296592286229566</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2083110775105834</v>
+        <v>0.217035688525272</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3776430890119463</v>
+        <v>0.3845064702626484</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>47</v>
@@ -6205,19 +6205,19 @@
         <v>54648</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>42225</v>
+        <v>41840</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>69391</v>
+        <v>70378</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2740313259480737</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2117336104864087</v>
+        <v>0.2098058692757404</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3479610653298592</v>
+        <v>0.3529095288241102</v>
       </c>
     </row>
     <row r="8">
@@ -6234,19 +6234,19 @@
         <v>11225</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>6226</v>
+        <v>6743</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>17266</v>
+        <v>17887</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1980169841414026</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1098259817929762</v>
+        <v>0.1189522623418418</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3045752687797154</v>
+        <v>0.3155298756172891</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -6255,19 +6255,19 @@
         <v>38130</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>27638</v>
+        <v>26177</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50604</v>
+        <v>51821</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2671370081522041</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.193632437663996</v>
+        <v>0.1833957319548303</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.35453059313991</v>
+        <v>0.3630567755800277</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>43</v>
@@ -6276,19 +6276,19 @@
         <v>49355</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>37345</v>
+        <v>37302</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>63321</v>
+        <v>62655</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2474884672486383</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1872651739661541</v>
+        <v>0.1870512750375726</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3175224732844779</v>
+        <v>0.3141819517757468</v>
       </c>
     </row>
     <row r="9">
@@ -6308,7 +6308,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5455</v>
+        <v>6103</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03065043732091598</v>
@@ -6317,7 +6317,7 @@
         <v>0</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09622462600257302</v>
+        <v>0.1076627816226582</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -6326,19 +6326,19 @@
         <v>21585</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>13177</v>
+        <v>13576</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>33416</v>
+        <v>32664</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1512284200633768</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.09231972559078612</v>
+        <v>0.09511244902535568</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2341129341407135</v>
+        <v>0.2288477508215857</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>20</v>
@@ -6347,19 +6347,19 @@
         <v>23323</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>14898</v>
+        <v>14382</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>35456</v>
+        <v>34358</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.116952080321156</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.07470688527982595</v>
+        <v>0.07211698058934821</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1777910055387948</v>
+        <v>0.1722855075251461</v>
       </c>
     </row>
     <row r="10">
@@ -6379,7 +6379,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>6708</v>
+        <v>6980</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03688769363588953</v>
@@ -6388,7 +6388,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1183319921807749</v>
+        <v>0.1231278386597238</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -6400,7 +6400,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7380</v>
+        <v>7546</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01726592359869206</v>
@@ -6409,7 +6409,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.05170366302761538</v>
+        <v>0.05286964208598541</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -6418,19 +6418,19 @@
         <v>4556</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1283</v>
+        <v>1276</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12385</v>
+        <v>11605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.0228437450287886</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006432024000849059</v>
+        <v>0.006399397913852599</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.06210604458879969</v>
+        <v>0.05819497853820315</v>
       </c>
     </row>
     <row r="11">
@@ -6447,19 +6447,19 @@
         <v>27584</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20304</v>
+        <v>20301</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>34949</v>
+        <v>34476</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.486583774674707</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.3581675996200055</v>
+        <v>0.358120416472571</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6165006292700964</v>
+        <v>0.6081593297395865</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -6468,19 +6468,19 @@
         <v>16030</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>8676</v>
+        <v>9086</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>26521</v>
+        <v>26558</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1123090357639623</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.0607875373106779</v>
+        <v>0.06365653382260343</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1858103237828954</v>
+        <v>0.1860630680473676</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>43</v>
@@ -6489,19 +6489,19 @@
         <v>43614</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>32731</v>
+        <v>33081</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>56993</v>
+        <v>56067</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2187029877612872</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1641264783038131</v>
+        <v>0.1658843245418704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2857913338361854</v>
+        <v>0.2811466206907369</v>
       </c>
     </row>
     <row r="12">
@@ -6518,19 +6518,19 @@
         <v>5569</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2581</v>
+        <v>2164</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>10848</v>
+        <v>11063</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.09824619426327937</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.04552408286331504</v>
+        <v>0.03817042891326151</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1913683152167798</v>
+        <v>0.1951459631586012</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>16</v>
@@ -6539,19 +6539,19 @@
         <v>20681</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>12381</v>
+        <v>12565</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>30898</v>
+        <v>30897</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1448886837327246</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.08674200846280922</v>
+        <v>0.08802882772239112</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2164759706472543</v>
+        <v>0.2164676163464443</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>22</v>
@@ -6560,19 +6560,19 @@
         <v>26250</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>17776</v>
+        <v>17377</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>38396</v>
+        <v>38388</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1316297638278166</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.08913549753945896</v>
+        <v>0.08713875910092178</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.1925373387932932</v>
+        <v>0.1924968661744236</v>
       </c>
     </row>
     <row r="13">
@@ -6703,7 +6703,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6180</v>
+        <v>5196</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.04769952913108006</v>
@@ -6712,7 +6712,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.2434781462184435</v>
+        <v>0.204700850654769</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>1</v>
@@ -6724,7 +6724,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>5378</v>
+        <v>5975</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.03311459944018518</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.1470891551602874</v>
+        <v>0.1634158509187457</v>
       </c>
     </row>
     <row r="16">
@@ -6813,7 +6813,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>4731</v>
+        <v>5460</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04229667108943545</v>
@@ -6822,7 +6822,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.186394602744121</v>
+        <v>0.2151058371284066</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1</v>
@@ -6834,7 +6834,7 @@
         <v>0</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>4844</v>
+        <v>5577</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.0293637557077537</v>
@@ -6843,7 +6843,7 @@
         <v>0</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1324811146839593</v>
+        <v>0.152525117115986</v>
       </c>
     </row>
     <row r="18">
@@ -6863,7 +6863,7 @@
         <v>0</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3393</v>
+        <v>4208</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.06629006046314058</v>
@@ -6872,7 +6872,7 @@
         <v>0</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3034882380426389</v>
+        <v>0.3763815511781818</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>6</v>
@@ -6881,19 +6881,19 @@
         <v>7925</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>3328</v>
+        <v>3313</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>14378</v>
+        <v>13852</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3122225384083147</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1311159777710438</v>
+        <v>0.130532679249826</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.5664010103151298</v>
+        <v>0.5456899743216377</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>7</v>
@@ -6902,19 +6902,19 @@
         <v>8667</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>4011</v>
+        <v>3922</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>15584</v>
+        <v>15415</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2370245654958156</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1097085595334365</v>
+        <v>0.1072585288776596</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.4261982521218086</v>
+        <v>0.4215948659752684</v>
       </c>
     </row>
     <row r="19">
@@ -6934,7 +6934,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6114</v>
+        <v>6272</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2063478449824171</v>
@@ -6943,7 +6943,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.5468704076294197</v>
+        <v>0.561036635853377</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>4</v>
@@ -6952,19 +6952,19 @@
         <v>4732</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1127</v>
+        <v>1154</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9757</v>
+        <v>10089</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1864274131271123</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.04439900064538491</v>
+        <v>0.04544763057974457</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.384369040498162</v>
+        <v>0.3974712309297724</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -6973,19 +6973,19 @@
         <v>7039</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2366</v>
+        <v>2839</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>13433</v>
+        <v>13013</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1925184187054583</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.06471194815847153</v>
+        <v>0.07764240841414284</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3673712462999867</v>
+        <v>0.3558960280220896</v>
       </c>
     </row>
     <row r="20">
@@ -7049,19 +7049,19 @@
         <v>3955</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1051</v>
+        <v>1135</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7044</v>
+        <v>7551</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.3537753075052076</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.09403674832005919</v>
+        <v>0.1014949032064659</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.6300741373393014</v>
+        <v>0.6754146104355264</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>7</v>
@@ -7070,19 +7070,19 @@
         <v>8163</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>3892</v>
+        <v>3605</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14475</v>
+        <v>14170</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3215610252404635</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1533151665141215</v>
+        <v>0.142032572848847</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.5702225463221489</v>
+        <v>0.5582216332032331</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>11</v>
@@ -7091,19 +7091,19 @@
         <v>12118</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>6673</v>
+        <v>7136</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>19069</v>
+        <v>19851</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3314110814240956</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1825037856948418</v>
+        <v>0.1951758631189876</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.5215352180026206</v>
+        <v>0.5429067966578834</v>
       </c>
     </row>
     <row r="22">
@@ -7120,19 +7120,19 @@
         <v>4177</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1441</v>
+        <v>1474</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7345</v>
+        <v>7386</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3735867870492348</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1288558348973847</v>
+        <v>0.1318150596448733</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6570203166665659</v>
+        <v>0.6606017283866225</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>3</v>
@@ -7141,19 +7141,19 @@
         <v>4512</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1043</v>
+        <v>1082</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>11174</v>
+        <v>11347</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1777456667274171</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.04110693608782794</v>
+        <v>0.04263788439155813</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4401836081451319</v>
+        <v>0.4469975606047984</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>8</v>
@@ -7162,19 +7162,19 @@
         <v>8689</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>4456</v>
+        <v>3912</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>15933</v>
+        <v>15655</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2376273683398271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.121872586243256</v>
+        <v>0.1069877099418589</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4357442085480964</v>
+        <v>0.4281617617803173</v>
       </c>
     </row>
     <row r="23">
@@ -7519,19 +7519,19 @@
         <v>4082</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1021</v>
+        <v>1047</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>7041</v>
+        <v>7152</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.5168086968267859</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1292656004495704</v>
+        <v>0.132522115515828</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.8914396564179162</v>
+        <v>0.9055657102492034</v>
       </c>
     </row>
     <row r="30">
@@ -7632,7 +7632,7 @@
         <v>0</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>6531</v>
+        <v>6327</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3090023804438241</v>
@@ -7641,7 +7641,7 @@
         <v>0</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.8269617885208892</v>
+        <v>0.8010329743135767</v>
       </c>
     </row>
     <row r="32">
@@ -7695,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>5996</v>
+        <v>5408</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1741889227293901</v>
@@ -7704,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.7592006314974553</v>
+        <v>0.6846876149727729</v>
       </c>
     </row>
     <row r="33">
@@ -7785,19 +7785,19 @@
         <v>3383</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>9161</v>
+        <v>8435</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01969543572578491</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0</v>
+        <v>0.005615903245633764</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05332688124286409</v>
+        <v>0.04910339140021838</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>3</v>
@@ -7809,16 +7809,16 @@
         <v>977</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>8779</v>
+        <v>9130</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01387310789264863</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.004005950159071041</v>
+        <v>0.004004964221675508</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.03599789548860702</v>
+        <v>0.03743495573652385</v>
       </c>
     </row>
     <row r="35">
@@ -7835,19 +7835,19 @@
         <v>4216</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>1585</v>
+        <v>1575</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>8692</v>
+        <v>9401</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05847736951517589</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.02198939777530906</v>
+        <v>0.02184255247314981</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1205537243169123</v>
+        <v>0.1303925030573097</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>9</v>
@@ -7856,19 +7856,19 @@
         <v>11643</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>5784</v>
+        <v>5260</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>21410</v>
+        <v>20992</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.06777593983061829</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03367000237500649</v>
+        <v>0.03061889658127953</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.1246315398958958</v>
+        <v>0.1221962467230234</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>14</v>
@@ -7877,19 +7877,19 @@
         <v>15859</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>9177</v>
+        <v>8941</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>25918</v>
+        <v>25086</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06502711388384845</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03762872436395551</v>
+        <v>0.03666172842255344</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.1062697395570246</v>
+        <v>0.1028609228853934</v>
       </c>
     </row>
     <row r="36">
@@ -7909,7 +7909,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>3288</v>
+        <v>3363</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.01020766022857173</v>
@@ -7918,7 +7918,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.04560662091644813</v>
+        <v>0.04664109849536623</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>0</v>
@@ -7943,7 +7943,7 @@
         <v>0</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>3767</v>
+        <v>3784</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.003017569404783654</v>
@@ -7952,7 +7952,7 @@
         <v>0</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01544489319136979</v>
+        <v>0.01551695708368047</v>
       </c>
     </row>
     <row r="37">
@@ -7969,19 +7969,19 @@
         <v>12314</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>7579</v>
+        <v>7008</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>20038</v>
+        <v>19030</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1708045041030374</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1051177534982046</v>
+        <v>0.09720228234616667</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2779325963692897</v>
+        <v>0.2639542840429796</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>34</v>
@@ -7990,19 +7990,19 @@
         <v>43407</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>32000</v>
+        <v>30624</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>56668</v>
+        <v>55836</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.2526795562722639</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1862756040773259</v>
+        <v>0.1782671614827454</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3298738081073748</v>
+        <v>0.3250293695501716</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>48</v>
@@ -8011,19 +8011,19 @@
         <v>55722</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>42113</v>
+        <v>42208</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>70054</v>
+        <v>71623</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.228475806646137</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1726767102243293</v>
+        <v>0.1730634157465337</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.2872413927789017</v>
+        <v>0.2936768993529574</v>
       </c>
     </row>
     <row r="38">
@@ -8040,19 +8040,19 @@
         <v>11967</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>7049</v>
+        <v>6720</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>18451</v>
+        <v>18714</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.165979352202545</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09777428333103966</v>
+        <v>0.09320659861745327</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.255919693960519</v>
+        <v>0.2595641778039472</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>36</v>
@@ -8061,19 +8061,19 @@
         <v>46055</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>33573</v>
+        <v>33698</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>59491</v>
+        <v>59433</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2680907731853339</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1954324231674708</v>
+        <v>0.1961612327216811</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3463067082633674</v>
+        <v>0.345964621177146</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>50</v>
@@ -8082,19 +8082,19 @@
         <v>58021</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>44299</v>
+        <v>45284</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>72758</v>
+        <v>73120</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2379047860994608</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1816392846346663</v>
+        <v>0.1856763357868216</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2983292747417945</v>
+        <v>0.2998117437841211</v>
       </c>
     </row>
     <row r="39">
@@ -8111,19 +8111,19 @@
         <v>5831</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>1756</v>
+        <v>2310</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>12811</v>
+        <v>12109</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.08088307352291238</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.02436179196669721</v>
+        <v>0.03204221437562474</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1776892355511038</v>
+        <v>0.1679542543505484</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>24</v>
@@ -8132,19 +8132,19 @@
         <v>28613</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>19733</v>
+        <v>18906</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>41006</v>
+        <v>41034</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.1665573511531038</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.1148659067761599</v>
+        <v>0.1100554487971303</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.2386984076038163</v>
+        <v>0.2388663024602657</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>29</v>
@@ -8153,19 +8153,19 @@
         <v>34444</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>24497</v>
+        <v>23168</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>49366</v>
+        <v>47464</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.1412304816095649</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.1004458536183684</v>
+        <v>0.09499760015684625</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.2024157201574524</v>
+        <v>0.1946183490403093</v>
       </c>
     </row>
     <row r="40">
@@ -8185,7 +8185,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>6807</v>
+        <v>8673</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02900462297792928</v>
@@ -8194,7 +8194,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09440993501924061</v>
+        <v>0.1202939327963745</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>2</v>
@@ -8206,7 +8206,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>8475</v>
+        <v>8653</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01434574323962619</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.04933561670297586</v>
+        <v>0.05036938913817583</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -8224,19 +8224,19 @@
         <v>4556</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1226</v>
+        <v>1252</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10551</v>
+        <v>10949</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.0186791738217779</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.005026056760785478</v>
+        <v>0.005135035215573514</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.04326015995184579</v>
+        <v>0.04489434194098725</v>
       </c>
     </row>
     <row r="41">
@@ -8253,19 +8253,19 @@
         <v>33980</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>26061</v>
+        <v>26789</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>42571</v>
+        <v>43080</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.4713092916578513</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.3614753873126517</v>
+        <v>0.3715686857298642</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.5904681320569134</v>
+        <v>0.5975248281006592</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>20</v>
@@ -8274,19 +8274,19 @@
         <v>24193</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>15483</v>
+        <v>15306</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>36151</v>
+        <v>35917</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1408286799002356</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.0901263783773526</v>
+        <v>0.08909686377976114</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.2104396402769177</v>
+        <v>0.2090752228145472</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>56</v>
@@ -8295,19 +8295,19 @@
         <v>58173</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>44820</v>
+        <v>45064</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>73631</v>
+        <v>73099</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2385247395832001</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1837767819076121</v>
+        <v>0.1847759374319234</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.3019095183625791</v>
+        <v>0.2997291478307761</v>
       </c>
     </row>
     <row r="42">
@@ -8324,19 +8324,19 @@
         <v>9746</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>5376</v>
+        <v>5130</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>16261</v>
+        <v>16313</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1351821428706154</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.07456329261075115</v>
+        <v>0.07115669828266706</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2255368521676862</v>
+        <v>0.2262643532246799</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>20</v>
@@ -8345,19 +8345,19 @@
         <v>26568</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>17253</v>
+        <v>16272</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>38527</v>
+        <v>40246</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1546563186860344</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1004342210611629</v>
+        <v>0.09472128898464305</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2242724049813964</v>
+        <v>0.2342792439694209</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>31</v>
@@ -8366,19 +8366,19 @@
         <v>36314</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>25423</v>
+        <v>25617</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>49428</v>
+        <v>50892</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1488993992933316</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1042401513849327</v>
+        <v>0.1050385281024619</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2026692568420442</v>
+        <v>0.2086710574097864</v>
       </c>
     </row>
     <row r="43">
@@ -8688,7 +8688,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>3716</v>
+        <v>3388</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01414127517109613</v>
@@ -8697,7 +8697,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05143113143946711</v>
+        <v>0.04688821791036853</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>14</v>
@@ -8706,19 +8706,19 @@
         <v>8363</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>4741</v>
+        <v>4556</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>13527</v>
+        <v>13712</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03850925128651984</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02183152414781306</v>
+        <v>0.0209779743686423</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.06229005490285689</v>
+        <v>0.06313850897972523</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>16</v>
@@ -8727,19 +8727,19 @@
         <v>9385</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5559</v>
+        <v>5554</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>14626</v>
+        <v>14926</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.03242618036443255</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01920920432403641</v>
+        <v>0.0191910570560271</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05053619305322601</v>
+        <v>0.05157244691144067</v>
       </c>
     </row>
     <row r="5">
@@ -8756,19 +8756,19 @@
         <v>18998</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>13258</v>
+        <v>13155</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>25546</v>
+        <v>25573</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2629587687150529</v>
+        <v>0.262958768715053</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1835076832903736</v>
+        <v>0.1820867158190023</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3535926536992688</v>
+        <v>0.3539599313226633</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>120</v>
@@ -8777,19 +8777,19 @@
         <v>60196</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>50832</v>
+        <v>51495</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>69429</v>
+        <v>70699</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2771846568941425</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2340670920202947</v>
+        <v>0.2371216376476588</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3197006027044018</v>
+        <v>0.3255505403569974</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>148</v>
@@ -8798,19 +8798,19 @@
         <v>79194</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>67162</v>
+        <v>67040</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>90226</v>
+        <v>90749</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2736333941091995</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2320587755218744</v>
+        <v>0.2316373591145825</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3117496766101233</v>
+        <v>0.3135596038949848</v>
       </c>
     </row>
     <row r="6">
@@ -8830,16 +8830,16 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>1763</v>
+        <v>1747</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.004736212661321086</v>
+        <v>0.004736212661321087</v>
       </c>
       <c r="H6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.02440308258222109</v>
+        <v>0.02418133109342899</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>1</v>
@@ -8851,7 +8851,7 @@
         <v>0</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>3687</v>
+        <v>3707</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.003166556963006496</v>
@@ -8860,7 +8860,7 @@
         <v>0</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.01697866597539829</v>
+        <v>0.01707095080553328</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>2</v>
@@ -8872,7 +8872,7 @@
         <v>0</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>3965</v>
+        <v>3661</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.003558396108402838</v>
@@ -8881,7 +8881,7 @@
         <v>0</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.01369882916745552</v>
+        <v>0.01265101922140843</v>
       </c>
     </row>
     <row r="7">
@@ -8898,19 +8898,19 @@
         <v>42004</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>35217</v>
+        <v>35066</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>48316</v>
+        <v>48863</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.5813918779517362</v>
+        <v>0.5813918779517363</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.4874426168149967</v>
+        <v>0.485361735132371</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.6687524936282594</v>
+        <v>0.6763277756436796</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>240</v>
@@ -8919,19 +8919,19 @@
         <v>127446</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>115577</v>
+        <v>117105</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>137854</v>
+        <v>137364</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.5868517891707957</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.5321992296243445</v>
+        <v>0.5392358796671902</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.6347783816838665</v>
+        <v>0.632521023941703</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>306</v>
@@ -8940,19 +8940,19 @@
         <v>169450</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>155972</v>
+        <v>156628</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>180440</v>
+        <v>181552</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.5854888106855691</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.538917354631569</v>
+        <v>0.5411850812733666</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6234605521248305</v>
+        <v>0.6273009616311381</v>
       </c>
     </row>
     <row r="8">
@@ -8969,19 +8969,19 @@
         <v>7524</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3878</v>
+        <v>4332</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12931</v>
+        <v>12745</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1041438802469246</v>
+        <v>0.1041438802469247</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.05367206108361251</v>
+        <v>0.05996468497169301</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1789745272027006</v>
+        <v>0.1764033175176217</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>88</v>
@@ -8990,19 +8990,19 @@
         <v>49385</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>40298</v>
+        <v>40367</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>59826</v>
+        <v>59223</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.227404407502408</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1855594806135686</v>
+        <v>0.185880286600643</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2754803122519619</v>
+        <v>0.2727029071677307</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>100</v>
@@ -9011,19 +9011,19 @@
         <v>56909</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>46671</v>
+        <v>46753</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>67414</v>
+        <v>67008</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1966344114371875</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1612578550294497</v>
+        <v>0.1615418044249409</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2329305447152326</v>
+        <v>0.2315263351755597</v>
       </c>
     </row>
     <row r="9">
@@ -9040,19 +9040,19 @@
         <v>2772</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>964</v>
+        <v>1000</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7001</v>
+        <v>7056</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03837450112580768</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01333716151251914</v>
+        <v>0.01383843953248313</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.09689906977569214</v>
+        <v>0.09766673393027298</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>18</v>
@@ -9061,19 +9061,19 @@
         <v>8721</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>5327</v>
+        <v>5275</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>13827</v>
+        <v>13500</v>
       </c>
       <c r="N9" s="6" t="n">
-        <v>0.04015760467711896</v>
+        <v>0.04015760467711897</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.02452830806470093</v>
+        <v>0.02429119169516884</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.06366726248968341</v>
+        <v>0.06216279078577924</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>23</v>
@@ -9082,19 +9082,19 @@
         <v>11493</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>7545</v>
+        <v>7278</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>17188</v>
+        <v>16797</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0397124817291698</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.02607007789942175</v>
+        <v>0.02514862232902903</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05938781010186806</v>
+        <v>0.05803694607282936</v>
       </c>
     </row>
     <row r="10">
@@ -9124,19 +9124,19 @@
         <v>2027</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>6052</v>
+        <v>6336</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009332907040436964</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.001867119496203067</v>
+        <v>0.001823979834429055</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02786665499834333</v>
+        <v>0.02917408768737306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>3</v>
@@ -9145,19 +9145,19 @@
         <v>2027</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>6128</v>
+        <v>6483</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007003097820035956</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.001380387863760256</v>
+        <v>0.001364533145741211</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02117339592253876</v>
+        <v>0.02240029405455027</v>
       </c>
     </row>
     <row r="11">
@@ -9174,19 +9174,19 @@
         <v>23490</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>17094</v>
+        <v>17239</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29939</v>
+        <v>29749</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3251299068609539</v>
+        <v>0.325129906860954</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2366071106275768</v>
+        <v>0.2386104290898911</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.4143881962575273</v>
+        <v>0.41176695991898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>57</v>
@@ -9195,19 +9195,19 @@
         <v>30354</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>23651</v>
+        <v>22558</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>37890</v>
+        <v>37925</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.1397734072828299</v>
+        <v>0.13977340728283</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1089067935203603</v>
+        <v>0.1038722277768547</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1744743424190123</v>
+        <v>0.1746316949379088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>94</v>
@@ -9216,19 +9216,19 @@
         <v>53844</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>44479</v>
+        <v>44046</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>64148</v>
+        <v>63630</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1860446580203869</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1536846595812825</v>
+        <v>0.1521891533637403</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2216439412818964</v>
+        <v>0.2198558803780591</v>
       </c>
     </row>
     <row r="12">
@@ -9245,19 +9245,19 @@
         <v>11706</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>6971</v>
+        <v>7246</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>16992</v>
+        <v>17110</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.1620280946148092</v>
+        <v>0.1620280946148093</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09648331113133657</v>
+        <v>0.1002904599224425</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2351910499735256</v>
+        <v>0.2368282144940711</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>73</v>
@@ -9266,19 +9266,19 @@
         <v>39630</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>31313</v>
+        <v>32136</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48494</v>
+        <v>49259</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1824853585057172</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1441856755582324</v>
+        <v>0.1479763648464182</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2233023008203136</v>
+        <v>0.226822842842296</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>92</v>
@@ -9287,19 +9287,19 @@
         <v>51336</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>42285</v>
+        <v>42149</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>62818</v>
+        <v>62215</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1773785336085325</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1461049784581789</v>
+        <v>0.1456336519165314</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2170492499429839</v>
+        <v>0.2149653444030084</v>
       </c>
     </row>
     <row r="13">
@@ -9367,19 +9367,19 @@
         <v>2097</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>468</v>
+        <v>484</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6007</v>
+        <v>5432</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.07335597648039052</v>
+        <v>0.07335597648039054</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01635522338796503</v>
+        <v>0.01692547121122519</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2100704734429397</v>
+        <v>0.1899607517332103</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1</v>
@@ -9391,16 +9391,16 @@
         <v>0</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>2885</v>
+        <v>3221</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.01169939558207063</v>
+        <v>0.01169939558207062</v>
       </c>
       <c r="O14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.06001852352187988</v>
+        <v>0.06701946956433869</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>4</v>
@@ -9409,19 +9409,19 @@
         <v>2660</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>696</v>
+        <v>910</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>6558</v>
+        <v>6697</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.03469755792407614</v>
+        <v>0.03469755792407613</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.009082631846091095</v>
+        <v>0.01187526514497496</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.08555153035592873</v>
+        <v>0.08737163159608638</v>
       </c>
     </row>
     <row r="15">
@@ -9438,19 +9438,19 @@
         <v>4482</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2158</v>
+        <v>2148</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>8142</v>
+        <v>8362</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.1567569803660451</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.07546046265849722</v>
+        <v>0.07510978212442451</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2847595386532091</v>
+        <v>0.2924585344856118</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>26</v>
@@ -9459,19 +9459,19 @@
         <v>14034</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>9566</v>
+        <v>9844</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>19272</v>
+        <v>18662</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>0.2919896324828175</v>
+        <v>0.2919896324828174</v>
       </c>
       <c r="O15" s="6" t="n">
-        <v>0.1990304598356177</v>
+        <v>0.2048219916647779</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.4009818333426769</v>
+        <v>0.3882974404289132</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>34</v>
@@ -9480,19 +9480,19 @@
         <v>18516</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>13363</v>
+        <v>13666</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>25192</v>
+        <v>24918</v>
       </c>
       <c r="U15" s="6" t="n">
-        <v>0.2415472880970581</v>
+        <v>0.241547288097058</v>
       </c>
       <c r="V15" s="6" t="n">
-        <v>0.1743245646517482</v>
+        <v>0.1782821456854957</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.3286464949178682</v>
+        <v>0.3250640113262275</v>
       </c>
     </row>
     <row r="16">
@@ -9512,7 +9512,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>3405</v>
+        <v>4198</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02414877915220141</v>
@@ -9521,7 +9521,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1190932852627992</v>
+        <v>0.1468021096256556</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -9533,16 +9533,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>3892</v>
+        <v>3475</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.0228728403600939</v>
+        <v>0.02287284036009389</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08098250851360395</v>
+        <v>0.07231200754214227</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -9551,19 +9551,19 @@
         <v>1790</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>450</v>
+        <v>460</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>4724</v>
+        <v>5075</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02334877086178266</v>
+        <v>0.02334877086178265</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.005870277369996487</v>
+        <v>0.006000949093403264</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.06162332861801443</v>
+        <v>0.0662004206179183</v>
       </c>
     </row>
     <row r="17">
@@ -9580,19 +9580,19 @@
         <v>9972</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>6356</v>
+        <v>6270</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>14335</v>
+        <v>14325</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.3487580178490721</v>
+        <v>0.3487580178490722</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2223080439614027</v>
+        <v>0.2192851325918729</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5013319354432284</v>
+        <v>0.5009857706993134</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>42</v>
@@ -9601,19 +9601,19 @@
         <v>21425</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>16298</v>
+        <v>16394</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>26167</v>
+        <v>26489</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.4457871613312483</v>
+        <v>0.4457871613312482</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3391115883725746</v>
+        <v>0.3410957905446004</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5444329593688932</v>
+        <v>0.5511418712712979</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -9622,19 +9622,19 @@
         <v>31397</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24534</v>
+        <v>25061</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>37600</v>
+        <v>37898</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.4095948853211843</v>
+        <v>0.4095948853211842</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.320058806931245</v>
+        <v>0.326936056128791</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4905067093698932</v>
+        <v>0.4943924626268941</v>
       </c>
     </row>
     <row r="18">
@@ -9651,19 +9651,19 @@
         <v>5811</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2697</v>
+        <v>2680</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>9841</v>
+        <v>10157</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2032298834715134</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.09432888945669861</v>
+        <v>0.09373579118543156</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3441794117159512</v>
+        <v>0.355235297949611</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>14</v>
@@ -9672,19 +9672,19 @@
         <v>7654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>4460</v>
+        <v>4424</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>12246</v>
+        <v>11894</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.1592454776072574</v>
+        <v>0.1592454776072573</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.09280421571370019</v>
+        <v>0.0920537220246746</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2547887598037601</v>
+        <v>0.2474661243297141</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>22</v>
@@ -9693,19 +9693,19 @@
         <v>13465</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>9004</v>
+        <v>9196</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>19280</v>
+        <v>19956</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.175651844808368</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1174653160010497</v>
+        <v>0.1199679800250031</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2515213168393534</v>
+        <v>0.2603322827937202</v>
       </c>
     </row>
     <row r="19">
@@ -9722,19 +9722,19 @@
         <v>2120</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>517</v>
+        <v>505</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>5889</v>
+        <v>6267</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.07413486448040855</v>
+        <v>0.07413486448040857</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.01807307291179499</v>
+        <v>0.01767536616209794</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2059565697979011</v>
+        <v>0.2191627980320737</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -9743,19 +9743,19 @@
         <v>1618</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>4401</v>
+        <v>4362</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.03366830089650463</v>
+        <v>0.03366830089650461</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.008193506681703008</v>
+        <v>0.007916802137371488</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.09157152766838796</v>
+        <v>0.09074996838312248</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -9764,19 +9764,19 @@
         <v>3738</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1404</v>
+        <v>1319</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>8043</v>
+        <v>8035</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04876249822574821</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01831393759700469</v>
+        <v>0.01720364244085519</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1049218425909021</v>
+        <v>0.1048158196557166</v>
       </c>
     </row>
     <row r="20">
@@ -9796,7 +9796,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>3873</v>
+        <v>3281</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02264560722613528</v>
@@ -9805,7 +9805,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1354381735660421</v>
+        <v>0.1147637388835838</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1</v>
@@ -9817,16 +9817,16 @@
         <v>0</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2237</v>
+        <v>1888</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.009014325333124915</v>
+        <v>0.009014325333124911</v>
       </c>
       <c r="O20" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04654814395294146</v>
+        <v>0.03929008663676206</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2</v>
@@ -9838,7 +9838,7 @@
         <v>0</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>4093</v>
+        <v>3700</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.01409885044524697</v>
@@ -9847,7 +9847,7 @@
         <v>0</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05339571932754602</v>
+        <v>0.04827161666284008</v>
       </c>
     </row>
     <row r="21">
@@ -9864,19 +9864,19 @@
         <v>10741</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>6488</v>
+        <v>6569</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14560</v>
+        <v>15205</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.3756352242194728</v>
+        <v>0.3756352242194729</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2268981299053611</v>
+        <v>0.2297371459571757</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5092051820073215</v>
+        <v>0.5317855035542122</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>17</v>
@@ -9885,19 +9885,19 @@
         <v>9667</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>6087</v>
+        <v>6295</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>14175</v>
+        <v>15077</v>
       </c>
       <c r="N21" s="6" t="n">
-        <v>0.2011326414813956</v>
+        <v>0.2011326414813955</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1266469973583208</v>
+        <v>0.1309670786711227</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2949224820823597</v>
+        <v>0.31370382019676</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>32</v>
@@ -9906,19 +9906,19 @@
         <v>20407</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>14736</v>
+        <v>15109</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>27184</v>
+        <v>27322</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2662228341005408</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.192243150892698</v>
+        <v>0.1971052380040718</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3546297637370917</v>
+        <v>0.3564282694333619</v>
       </c>
     </row>
     <row r="22">
@@ -9935,19 +9935,19 @@
         <v>3787</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1294</v>
+        <v>1412</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7184</v>
+        <v>7346</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1324480169728075</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.04523872014434849</v>
+        <v>0.04937678443343697</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2512413916240508</v>
+        <v>0.2569313270932275</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>16</v>
@@ -9956,19 +9956,19 @@
         <v>8694</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5387</v>
+        <v>5453</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>13018</v>
+        <v>13397</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1808815584211408</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1120890614478107</v>
+        <v>0.1134528161506381</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.270868429980045</v>
+        <v>0.2787524022185193</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>22</v>
@@ -9977,19 +9977,19 @@
         <v>12481</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>8287</v>
+        <v>8512</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>18111</v>
+        <v>18282</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1628156450539373</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1081124852439818</v>
+        <v>0.1110424992522516</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2362696703220393</v>
+        <v>0.2384911788901276</v>
       </c>
     </row>
     <row r="23">
@@ -10060,7 +10060,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3493</v>
+        <v>3402</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.129466152608511</v>
@@ -10069,7 +10069,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4886606040588193</v>
+        <v>0.4758802098698334</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1</v>
@@ -10081,7 +10081,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2579</v>
+        <v>2658</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.07902126292652681</v>
@@ -10090,7 +10090,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3157649966358378</v>
+        <v>0.3254174408972733</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2</v>
@@ -10102,7 +10102,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4709</v>
+        <v>4407</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1025643696791468</v>
@@ -10111,7 +10111,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3074840306626342</v>
+        <v>0.2877282527991874</v>
       </c>
     </row>
     <row r="25">
@@ -10144,7 +10144,7 @@
         <v>0</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>3292</v>
+        <v>3349</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1304379752298028</v>
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4029920364284668</v>
+        <v>0.4099775350929326</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2</v>
@@ -10165,16 +10165,16 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>3445</v>
+        <v>3770</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.06956133946371065</v>
+        <v>0.06956133946371067</v>
       </c>
       <c r="V25" s="6" t="n">
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2249278630943276</v>
+        <v>0.2461562213908237</v>
       </c>
     </row>
     <row r="26">
@@ -10238,19 +10238,19 @@
         <v>1810</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>527</v>
+        <v>540</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>4403</v>
+        <v>4381</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.253237817544428</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.07369562202191336</v>
+        <v>0.07548807834324193</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6159184583656185</v>
+        <v>0.6129360446173705</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>4</v>
@@ -10259,19 +10259,19 @@
         <v>2436</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>670</v>
+        <v>653</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>4850</v>
+        <v>4905</v>
       </c>
       <c r="N27" s="6" t="n">
         <v>0.2982044918171257</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.08197007996935046</v>
+        <v>0.07993830467793432</v>
       </c>
       <c r="P27" s="6" t="n">
-        <v>0.5937465929432703</v>
+        <v>0.6004803371980859</v>
       </c>
       <c r="Q27" s="5" t="n">
         <v>7</v>
@@ -10280,19 +10280,19 @@
         <v>4246</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>1790</v>
+        <v>2053</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>7366</v>
+        <v>7431</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.2772181199688293</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.1169008606920355</v>
+        <v>0.1340747978452666</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.4809859531763803</v>
+        <v>0.4852327215968789</v>
       </c>
     </row>
     <row r="28">
@@ -10312,7 +10312,7 @@
         <v>0</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>3493</v>
+        <v>3402</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.129466152608511</v>
@@ -10321,7 +10321,7 @@
         <v>0</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.4886606040588193</v>
+        <v>0.4758802098698334</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>3</v>
@@ -10330,19 +10330,19 @@
         <v>1651</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>391</v>
+        <v>402</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>3950</v>
+        <v>3916</v>
       </c>
       <c r="N28" s="6" t="n">
-        <v>0.2020927447264542</v>
+        <v>0.2020927447264543</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.0478772935357859</v>
+        <v>0.04924682374797974</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.4835775145734008</v>
+        <v>0.4794312421510438</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>4</v>
@@ -10351,19 +10351,19 @@
         <v>2576</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>813</v>
+        <v>858</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>5926</v>
+        <v>5891</v>
       </c>
       <c r="U28" s="6" t="n">
-        <v>0.1681972278150081</v>
+        <v>0.1681972278150082</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.0530868691958096</v>
+        <v>0.05601185007448554</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.3869635698395186</v>
+        <v>0.3846363763812231</v>
       </c>
     </row>
     <row r="29">
@@ -10383,7 +10383,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3238</v>
+        <v>3182</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1475035126023443</v>
@@ -10392,7 +10392,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4529955438842816</v>
+        <v>0.4451388495956708</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>4</v>
@@ -10401,19 +10401,19 @@
         <v>2358</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>634</v>
+        <v>662</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>4519</v>
+        <v>4773</v>
       </c>
       <c r="N29" s="6" t="n">
-        <v>0.2886831586550283</v>
+        <v>0.2886831586550282</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.07756281444801078</v>
+        <v>0.08100191205500669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.5532582749654096</v>
+        <v>0.5843157751033922</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>6</v>
@@ -10422,19 +10422,19 @@
         <v>3412</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>1117</v>
+        <v>1350</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>6248</v>
+        <v>6363</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.2227932835999044</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.07293411513052143</v>
+        <v>0.08813147622813612</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.4079963871996536</v>
+        <v>0.4154475660312561</v>
       </c>
     </row>
     <row r="30">
@@ -10498,19 +10498,19 @@
         <v>4926</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>2392</v>
+        <v>2644</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>6611</v>
+        <v>6584</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.6891231515085973</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3346033786696215</v>
+        <v>0.3699240161675146</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.9248100594455487</v>
+        <v>0.921099794405573</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>2</v>
@@ -10522,7 +10522,7 @@
         <v>0</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>4114</v>
+        <v>3809</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.161440901851434</v>
@@ -10531,7 +10531,7 @@
         <v>0</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5037220604509719</v>
+        <v>0.4663602416934359</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>9</v>
@@ -10540,19 +10540,19 @@
         <v>6244</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>3439</v>
+        <v>2963</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>9503</v>
+        <v>9465</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4077151947175775</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.2245431966531589</v>
+        <v>0.1934714021387626</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.6204979459908805</v>
+        <v>0.6180380830986786</v>
       </c>
     </row>
     <row r="32">
@@ -10572,7 +10572,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>2487</v>
+        <v>2561</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.0841493967420148</v>
@@ -10581,7 +10581,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3479429018444647</v>
+        <v>0.3582642955986464</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>2</v>
@@ -10593,7 +10593,7 @@
         <v>0</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>3093</v>
+        <v>3372</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1089815085046846</v>
@@ -10602,7 +10602,7 @@
         <v>0</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.3786270104132308</v>
+        <v>0.4128704464779834</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>3</v>
@@ -10611,19 +10611,19 @@
         <v>1492</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>4206</v>
+        <v>3844</v>
       </c>
       <c r="U32" s="6" t="n">
-        <v>0.09739212726493701</v>
+        <v>0.09739212726493703</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.02588459174625</v>
+        <v>0.02603873087619255</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.274620259069853</v>
+        <v>0.2510123270766157</v>
       </c>
     </row>
     <row r="33">
@@ -10691,19 +10691,19 @@
         <v>4045</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>1606</v>
+        <v>1424</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>9230</v>
+        <v>8912</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.03745320038267241</v>
+        <v>0.03745320038267242</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01487589111293671</v>
+        <v>0.01318875091093049</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.08547314742600648</v>
+        <v>0.08252702677545846</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>16</v>
@@ -10712,19 +10712,19 @@
         <v>9571</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>5840</v>
+        <v>5623</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>14842</v>
+        <v>15539</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.03500645504453316</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.02136057924198485</v>
+        <v>0.02056605028372257</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.05428757907608849</v>
+        <v>0.05683565345453152</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>22</v>
@@ -10733,19 +10733,19 @@
         <v>13615</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>8878</v>
+        <v>8598</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>20564</v>
+        <v>19945</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.03569924386735252</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.0232772321828154</v>
+        <v>0.02254363473286342</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.05392006905729444</v>
+        <v>0.05229641467626827</v>
       </c>
     </row>
     <row r="35">
@@ -10762,19 +10762,19 @@
         <v>23480</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17494</v>
+        <v>17001</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>31615</v>
+        <v>30853</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.2174339209989056</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1619942355547099</v>
+        <v>0.1574354647693174</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2927651318577661</v>
+        <v>0.2857060349460546</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>148</v>
@@ -10783,19 +10783,19 @@
         <v>75295</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>64083</v>
+        <v>64799</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>86813</v>
+        <v>86691</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>0.2754033787619427</v>
+        <v>0.2754033787619428</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.2343923432359858</v>
+        <v>0.2370133849795365</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.3175335615983129</v>
+        <v>0.3170853905208909</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>184</v>
@@ -10804,19 +10804,19 @@
         <v>98775</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>85514</v>
+        <v>86407</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>112855</v>
+        <v>112054</v>
       </c>
       <c r="U35" s="6" t="n">
-        <v>0.2589894954790698</v>
+        <v>0.2589894954790699</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.2242168236316812</v>
+        <v>0.2265594620855992</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2959065384196753</v>
+        <v>0.2938048780625692</v>
       </c>
     </row>
     <row r="36">
@@ -10836,7 +10836,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>4083</v>
+        <v>3986</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.00956266195312676</v>
@@ -10845,7 +10845,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03780798353531462</v>
+        <v>0.03691243910196247</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>3</v>
@@ -10857,16 +10857,16 @@
         <v>463</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>4823</v>
+        <v>5184</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.006536238650683149</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.00169330225811129</v>
+        <v>0.001693543793594087</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.01763994911862267</v>
+        <v>0.0189611304664288</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>5</v>
@@ -10875,19 +10875,19 @@
         <v>2820</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>1027</v>
+        <v>1038</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>6326</v>
+        <v>6726</v>
       </c>
       <c r="U36" s="6" t="n">
-        <v>0.007393161602316319</v>
+        <v>0.00739316160231632</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.002693683379357588</v>
+        <v>0.0027210589616673</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.01658760388036127</v>
+        <v>0.01763543152637569</v>
       </c>
     </row>
     <row r="37">
@@ -10904,19 +10904,19 @@
         <v>53787</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>45415</v>
+        <v>45397</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>63398</v>
+        <v>61579</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4980758010292771</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.4205545944544977</v>
+        <v>0.4203828157089479</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.5870806147930565</v>
+        <v>0.5702378975195885</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>286</v>
@@ -10925,19 +10925,19 @@
         <v>151307</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>139405</v>
+        <v>137723</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>163437</v>
+        <v>162330</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.5534301484079718</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.5098942388331174</v>
+        <v>0.5037437245876635</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.5977949924936266</v>
+        <v>0.5937487215954328</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>371</v>
@@ -10946,19 +10946,19 @@
         <v>205094</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>190696</v>
+        <v>191295</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>220860</v>
+        <v>220365</v>
       </c>
       <c r="U37" s="6" t="n">
-        <v>0.5377567260208327</v>
+        <v>0.5377567260208328</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.5000062023098554</v>
+        <v>0.5015754661914897</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.5790965693715514</v>
+        <v>0.5777963623211999</v>
       </c>
     </row>
     <row r="38">
@@ -10975,19 +10975,19 @@
         <v>14261</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>9317</v>
+        <v>9245</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>21945</v>
+        <v>21386</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1320553666182497</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08627827068482447</v>
+        <v>0.08560736465209809</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2032180072756288</v>
+        <v>0.1980400526102777</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>105</v>
@@ -10996,19 +10996,19 @@
         <v>58690</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>48914</v>
+        <v>49266</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>69107</v>
+        <v>69677</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2146661970994048</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1789119512020578</v>
+        <v>0.1801992497986916</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2527683020375507</v>
+        <v>0.2548561145266206</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>126</v>
@@ -11017,19 +11017,19 @@
         <v>72950</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>62305</v>
+        <v>61426</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>86564</v>
+        <v>84988</v>
       </c>
       <c r="U38" s="6" t="n">
-        <v>0.1912751808342245</v>
+        <v>0.1912751808342246</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1633628050799137</v>
+        <v>0.1610584810149384</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.2269720133157202</v>
+        <v>0.222838385488772</v>
       </c>
     </row>
     <row r="39">
@@ -11046,19 +11046,19 @@
         <v>5947</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>3004</v>
+        <v>3024</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>10957</v>
+        <v>10587</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.05506622115024624</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.0278130723542502</v>
+        <v>0.02799886188492637</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.1014648205404419</v>
+        <v>0.09804008683313063</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>25</v>
@@ -11067,19 +11067,19 @@
         <v>12697</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>8672</v>
+        <v>8377</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>18436</v>
+        <v>19050</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0464412971691028</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03171966705682919</v>
+        <v>0.03063964923380234</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.06743411368050277</v>
+        <v>0.06968003243294743</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>35</v>
@@ -11088,19 +11088,19 @@
         <v>18644</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>13328</v>
+        <v>13283</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>25283</v>
+        <v>26275</v>
       </c>
       <c r="U39" s="6" t="n">
-        <v>0.04888341929708323</v>
+        <v>0.04888341929708324</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.03494622268700355</v>
+        <v>0.03482846368993745</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.06629247672722212</v>
+        <v>0.06889265171081742</v>
       </c>
     </row>
     <row r="40">
@@ -11120,7 +11120,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>3259</v>
+        <v>3252</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.005995966680766321</v>
@@ -11129,7 +11129,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03018281291520217</v>
+        <v>0.03010985711475267</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>4</v>
@@ -11138,19 +11138,19 @@
         <v>2460</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>613</v>
+        <v>793</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>6772</v>
+        <v>6563</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.008998089289306919</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002241668633859573</v>
+        <v>0.002899222918697226</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02476966848142686</v>
+        <v>0.02400424067899713</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>5</v>
@@ -11159,19 +11159,19 @@
         <v>3108</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1051</v>
+        <v>1234</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>7580</v>
+        <v>7572</v>
       </c>
       <c r="U40" s="6" t="n">
-        <v>0.008148047008440884</v>
+        <v>0.008148047008440885</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.002754842448386452</v>
+        <v>0.003236288816210011</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01987539891408481</v>
+        <v>0.01985307741605653</v>
       </c>
     </row>
     <row r="41">
@@ -11188,19 +11188,19 @@
         <v>39156</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>31642</v>
+        <v>31580</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>48517</v>
+        <v>47309</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.3625953064639311</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2930074822451704</v>
+        <v>0.2924357837800934</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.4492802316426071</v>
+        <v>0.4380872618913968</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>76</v>
@@ -11209,19 +11209,19 @@
         <v>41340</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>33556</v>
+        <v>33859</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>51125</v>
+        <v>51332</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1512073940979944</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1227365195499371</v>
+        <v>0.1238443126946533</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.1869973788344999</v>
+        <v>0.187755840800937</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>135</v>
@@ -11230,19 +11230,19 @@
         <v>80496</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>68099</v>
+        <v>68757</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>93861</v>
+        <v>92980</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.2110612663761827</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1785553846597539</v>
+        <v>0.1802810483556275</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2461040863341125</v>
+        <v>0.2437940440969047</v>
       </c>
     </row>
     <row r="42">
@@ -11259,19 +11259,19 @@
         <v>16095</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>10955</v>
+        <v>10638</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>22799</v>
+        <v>22715</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1490412281793858</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1014475564801505</v>
+        <v>0.09851109419913492</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2111232966255995</v>
+        <v>0.2103457189002565</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>91</v>
@@ -11280,19 +11280,19 @@
         <v>49214</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>40511</v>
+        <v>39728</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>58976</v>
+        <v>58782</v>
       </c>
       <c r="N42" s="6" t="n">
-        <v>0.1800075539414836</v>
+        <v>0.1800075539414835</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1481761175361913</v>
+        <v>0.1453124542941501</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2157138777285196</v>
+        <v>0.2150043450374452</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>117</v>
@@ -11301,19 +11301,19 @@
         <v>65309</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>54792</v>
+        <v>54450</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>76844</v>
+        <v>76339</v>
       </c>
       <c r="U42" s="6" t="n">
-        <v>0.1712395289094711</v>
+        <v>0.1712395289094712</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1436635262314904</v>
+        <v>0.1427689306112577</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2014847465595295</v>
+        <v>0.2001600870104902</v>
       </c>
     </row>
     <row r="43">
